--- a/data/158/TSE/TOPIX/TOPIX Index - Monthly.xlsx
+++ b/data/158/TSE/TOPIX/TOPIX Index - Monthly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:UY2"/>
+  <dimension ref="A1:UZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3209,15 +3209,20 @@
       </c>
       <c r="UW1" s="1" t="inlineStr">
         <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="UX1" s="1" t="inlineStr">
+      <c r="UY1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="UY1" s="1" t="inlineStr">
+      <c r="UZ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -4928,19 +4933,22 @@
         <v>1886.93</v>
       </c>
       <c r="UV2" t="n">
-        <v>1983.22</v>
-      </c>
-      <c r="UW2" t="inlineStr">
+        <v>1946.4</v>
+      </c>
+      <c r="UW2" t="n">
+        <v>1875.15</v>
+      </c>
+      <c r="UX2" t="inlineStr">
         <is>
           <t>TOPIX</t>
         </is>
       </c>
-      <c r="UX2" t="inlineStr">
+      <c r="UY2" t="inlineStr">
         <is>
           <t>TOPIX Index, Close</t>
         </is>
       </c>
-      <c r="UY2" t="inlineStr">
+      <c r="UZ2" t="inlineStr">
         <is>
           <t>Index: 1968.01.04=100</t>
         </is>
